--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143557.468115791</v>
+        <v>2140927.075314056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2668988.932318826</v>
+        <v>2668988.932318823</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4710514.801755087</v>
+        <v>4710514.801755086</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>215.656533835213</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>174.7792020543837</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -712,22 +712,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8160734080467</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>93.67830721325009</v>
       </c>
       <c r="C4" t="n">
-        <v>97.61153143263806</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>116.454068610337</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>188.6513618079515</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>27.22061644077809</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>68.47466497529858</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>136.9148716670648</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>179.1065227128908</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.62158221638405</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>55.99100827250076</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>99.00649574133018</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117129</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>27.85153741474706</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -1469,7 +1469,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I12" t="n">
-        <v>39.77957330346644</v>
+        <v>39.77957330346645</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011047</v>
       </c>
       <c r="S12" t="n">
         <v>128.6645579096422</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.7178342489127</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>166.3495920856427</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I13" t="n">
-        <v>51.46471247782265</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1618,7 +1618,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>408.5363925405122</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>26.58821113203817</v>
       </c>
       <c r="X14" t="n">
-        <v>376.8372614364334</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S15" t="n">
         <v>128.6645579096422</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>63.89600721839097</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>66.31149170309375</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -1849,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>307.092728714057</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.535560979117133</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>153.5746362079504</v>
@@ -1903,16 +1903,16 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>189.9929727770694</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I18" t="n">
-        <v>39.77957330346645</v>
+        <v>39.77957330346644</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.242832149011051</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S18" t="n">
         <v>128.6645579096422</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>31.06961344679096</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.425394529419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>232.3902757359508</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H20" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I20" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.535560979117129</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.0998921310412</v>
@@ -2140,16 +2140,16 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>25.74425997452197</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>149.3277499348895</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>151.9506836387004</v>
       </c>
       <c r="I22" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>205.5380934373116</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>381.6395165299964</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.7755108463297</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1556234364382</v>
+        <v>61.1298337571553</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S24" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T24" t="n">
         <v>174.1470195830784</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>12.72464427447751</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>180.0005566140939</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>322.4320815619886</v>
       </c>
       <c r="H26" t="n">
-        <v>106.7071206556774</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I26" t="n">
         <v>117.8804585990615</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.0998921310412</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S27" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T27" t="n">
         <v>174.1470195830784</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T28" t="n">
-        <v>101.6729152827645</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>53.59877109183363</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2809,7 +2809,7 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H29" t="n">
-        <v>131.5253552578353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>117.8804585990615</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>31.94436802934825</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S30" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T30" t="n">
         <v>174.1470195830784</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.4136522254854</v>
+        <v>34.55306787201729</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.01085743348339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I32" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>153.5746362079504</v>
@@ -3085,7 +3085,7 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1556234364382</v>
+        <v>198.8615660058301</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>189.2122701149956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S33" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T33" t="n">
         <v>174.1470195830784</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>34.55306787201729</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V34" t="n">
-        <v>111.9283832625151</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>193.4893873111412</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>223.6045521774298</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H35" t="n">
         <v>315.7755108463297</v>
@@ -3328,10 +3328,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S36" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T36" t="n">
         <v>174.1470195830784</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>148.6639316835657</v>
+        <v>214.012227070201</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3489,7 +3489,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>248.1959094883078</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>293.4825983036885</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.0998921310412</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011036</v>
       </c>
       <c r="S39" t="n">
-        <v>128.6645579096422</v>
+        <v>128.6645579096421</v>
       </c>
       <c r="T39" t="n">
         <v>174.1470195830784</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5307933049545</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>232.4136522254854</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>139.6724816059975</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>377.8608731599683</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H41" t="n">
         <v>315.7755108463297</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>29.289644208881</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>33.87893464137854</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5722990436504</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>194.3258715786249</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>111.7031268808177</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3988,7 +3988,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>408.5363925405122</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>294.8422632608238</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>33.87893464137812</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T46" t="n">
-        <v>232.4136522254854</v>
+        <v>11.31801725753353</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>828.0448804555765</v>
+        <v>1162.787751730473</v>
       </c>
       <c r="C2" t="n">
-        <v>828.0448804555765</v>
+        <v>769.6122502334035</v>
       </c>
       <c r="D2" t="n">
-        <v>610.2099977937452</v>
+        <v>384.1711214500713</v>
       </c>
       <c r="E2" t="n">
         <v>207.6264729102897</v>
@@ -4330,25 +4330,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1086.634161864653</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N2" t="n">
-        <v>1614.445445502115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O2" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4360,22 +4360,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>1937.641433863169</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V2" t="n">
-        <v>1595.534624566688</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W2" t="n">
-        <v>1224.535589534975</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="X2" t="n">
-        <v>1224.535589534975</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="Y2" t="n">
-        <v>828.0448804555765</v>
+        <v>1563.28249744187</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O3" t="n">
         <v>1960.027136360783</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.9104765991578</v>
+        <v>854.1354399024394</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H4" t="n">
         <v>47.31297010154361</v>
@@ -4521,19 +4521,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>379.9907988161747</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>145.9104765991578</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>145.9104765991578</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>924.8850248408685</v>
+        <v>709.3099952694402</v>
       </c>
       <c r="C5" t="n">
-        <v>531.7095233437991</v>
+        <v>316.1344937723707</v>
       </c>
       <c r="D5" t="n">
-        <v>531.7095233437991</v>
+        <v>316.1344937723707</v>
       </c>
       <c r="E5" t="n">
-        <v>531.7095233437991</v>
+        <v>316.1344937723707</v>
       </c>
       <c r="F5" t="n">
-        <v>518.8554889141809</v>
+        <v>303.2804593427525</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4567,25 +4567,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>1905.389306738351</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V5" t="n">
-        <v>1905.389306738351</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.832375619209</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X5" t="n">
-        <v>1325.379770552265</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1325.379770552265</v>
+        <v>1109.804740980837</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N6" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.1512011330396</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="C7" t="n">
-        <v>202.9460831990289</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>879.5936643852187</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="W7" t="n">
-        <v>596.2632623163963</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="X7" t="n">
-        <v>596.2632623163963</v>
+        <v>273.4408663383982</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.1512011330396</v>
+        <v>273.4408663383982</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.8850248408685</v>
+        <v>1792.867032114551</v>
       </c>
       <c r="C8" t="n">
-        <v>531.7095233437991</v>
+        <v>1399.691530617481</v>
       </c>
       <c r="D8" t="n">
-        <v>531.7095233437991</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4804,25 +4804,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4834,22 +4834,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1506.295450060236</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1325.379770552265</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1325.379770552265</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.9460831990289</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>892.2034186304691</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>892.2034186304691</v>
       </c>
       <c r="T10" t="n">
-        <v>510.2248569938795</v>
+        <v>656.4843667987031</v>
       </c>
       <c r="U10" t="n">
-        <v>224.7860652357804</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="V10" t="n">
-        <v>224.7860652357804</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="W10" t="n">
-        <v>224.7860652357804</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="X10" t="n">
-        <v>224.7860652357804</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.7860652357804</v>
+        <v>371.0455750406041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.65720878307</v>
+        <v>2109.686980201313</v>
       </c>
       <c r="C11" t="n">
-        <v>1378.481707286001</v>
+        <v>1716.511478704244</v>
       </c>
       <c r="D11" t="n">
-        <v>993.0405785026685</v>
+        <v>1331.070349920912</v>
       </c>
       <c r="E11" t="n">
-        <v>590.457053619213</v>
+        <v>928.4868250374565</v>
       </c>
       <c r="F11" t="n">
-        <v>173.5626151491907</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="G11" t="n">
-        <v>73.55605379431174</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H11" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I11" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J11" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473727</v>
       </c>
       <c r="K11" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L11" t="n">
         <v>1251.67373183635</v>
@@ -5068,25 +5068,25 @@
         <v>3671.201112969004</v>
       </c>
       <c r="S11" t="n">
-        <v>3671.201112969004</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T11" t="n">
-        <v>3671.201112969004</v>
+        <v>3294.76219545487</v>
       </c>
       <c r="U11" t="n">
-        <v>3671.201112969004</v>
+        <v>3266.629329379368</v>
       </c>
       <c r="V11" t="n">
-        <v>3329.094303672522</v>
+        <v>3266.629329379368</v>
       </c>
       <c r="W11" t="n">
-        <v>2958.09526864081</v>
+        <v>2895.630294347656</v>
       </c>
       <c r="X11" t="n">
-        <v>2568.642663573866</v>
+        <v>2506.177689280712</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.151954494467</v>
+        <v>2109.686980201313</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>435.6120971457461</v>
       </c>
       <c r="L12" t="n">
-        <v>786.550081435956</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M12" t="n">
-        <v>786.550081435956</v>
+        <v>1670.250078663075</v>
       </c>
       <c r="N12" t="n">
-        <v>1510.485417243108</v>
+        <v>1670.250078663075</v>
       </c>
       <c r="O12" t="n">
-        <v>2089.356372817973</v>
+        <v>2249.12103423794</v>
       </c>
       <c r="P12" t="n">
-        <v>2089.356372817973</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="Q12" t="n">
         <v>2357.173157305615</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.3055735758544</v>
+        <v>552.3974186059279</v>
       </c>
       <c r="C13" t="n">
-        <v>308.1004556418436</v>
+        <v>552.3974186059279</v>
       </c>
       <c r="D13" t="n">
-        <v>308.1004556418436</v>
+        <v>552.3974186059279</v>
       </c>
       <c r="E13" t="n">
-        <v>308.1004556418436</v>
+        <v>552.3974186059279</v>
       </c>
       <c r="F13" t="n">
-        <v>308.1004556418436</v>
+        <v>395.0714838189008</v>
       </c>
       <c r="G13" t="n">
-        <v>140.0705646462449</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0705646462449</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J13" t="n">
         <v>73.55605379431174</v>
@@ -5217,7 +5217,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P13" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q13" t="n">
         <v>1177.274776709496</v>
@@ -5226,25 +5226,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S13" t="n">
-        <v>978.3652409720471</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T13" t="n">
-        <v>978.3652409720471</v>
+        <v>942.5135118352682</v>
       </c>
       <c r="U13" t="n">
-        <v>978.3652409720471</v>
+        <v>942.5135118352682</v>
       </c>
       <c r="V13" t="n">
-        <v>712.3858957928713</v>
+        <v>942.5135118352682</v>
       </c>
       <c r="W13" t="n">
-        <v>712.3858957928713</v>
+        <v>659.1831097664458</v>
       </c>
       <c r="X13" t="n">
-        <v>478.3055735758544</v>
+        <v>659.1831097664458</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.3055735758544</v>
+        <v>659.1831097664458</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2129.174501472438</v>
+        <v>2105.455564499486</v>
       </c>
       <c r="C14" t="n">
-        <v>2129.174501472438</v>
+        <v>1712.280063002416</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.733372689106</v>
+        <v>1326.838934219084</v>
       </c>
       <c r="E14" t="n">
-        <v>1341.149847805651</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="F14" t="n">
         <v>924.2554093356284</v>
@@ -5302,28 +5302,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R14" t="n">
-        <v>3677.802689715586</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="S14" t="n">
-        <v>3677.802689715586</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="T14" t="n">
-        <v>3677.802689715586</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="U14" t="n">
-        <v>3677.802689715586</v>
+        <v>3260.36246686356</v>
       </c>
       <c r="V14" t="n">
-        <v>3677.802689715586</v>
+        <v>2918.255657567079</v>
       </c>
       <c r="W14" t="n">
-        <v>3306.803654683874</v>
+        <v>2891.398878645828</v>
       </c>
       <c r="X14" t="n">
-        <v>2926.159956263234</v>
+        <v>2501.946273578885</v>
       </c>
       <c r="Y14" t="n">
-        <v>2529.669247183835</v>
+        <v>2105.455564499486</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C15" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D15" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E15" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F15" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G15" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H15" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I15" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J15" t="n">
-        <v>1394.185586204282</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K15" t="n">
-        <v>1756.241629555717</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L15" t="n">
-        <v>2296.708006088852</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M15" t="n">
-        <v>2990.879611073046</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="N15" t="n">
-        <v>2990.879611073046</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="O15" t="n">
-        <v>2990.879611073046</v>
+        <v>1901.50987658722</v>
       </c>
       <c r="P15" t="n">
-        <v>3409.985905227944</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="Q15" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R15" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S15" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T15" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U15" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V15" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W15" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X15" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y15" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>386.4408007221363</v>
+        <v>370.1144071858481</v>
       </c>
       <c r="C16" t="n">
-        <v>386.4408007221363</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="D16" t="n">
-        <v>386.4408007221363</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="E16" t="n">
-        <v>230.8819885813388</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="F16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="G16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H16" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I16" t="n">
         <v>73.55605379431174</v>
@@ -5454,34 +5454,34 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P16" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q16" t="n">
         <v>1177.274776709496</v>
       </c>
       <c r="R16" t="n">
-        <v>1177.274776709496</v>
+        <v>1112.733355276778</v>
       </c>
       <c r="S16" t="n">
-        <v>1177.274776709496</v>
+        <v>1112.733355276778</v>
       </c>
       <c r="T16" t="n">
-        <v>942.5135118352684</v>
+        <v>1112.733355276778</v>
       </c>
       <c r="U16" t="n">
-        <v>942.5135118352684</v>
+        <v>827.3067905862216</v>
       </c>
       <c r="V16" t="n">
-        <v>676.5341666560927</v>
+        <v>827.3067905862216</v>
       </c>
       <c r="W16" t="n">
-        <v>609.5528619054929</v>
+        <v>827.3067905862216</v>
       </c>
       <c r="X16" t="n">
-        <v>609.5528619054929</v>
+        <v>593.2264683692047</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.4408007221363</v>
+        <v>370.1144071858481</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1925.448854469382</v>
+        <v>1692.792541731292</v>
       </c>
       <c r="C17" t="n">
-        <v>1532.273352972313</v>
+        <v>1299.617040234222</v>
       </c>
       <c r="D17" t="n">
-        <v>1532.273352972313</v>
+        <v>914.1759114508898</v>
       </c>
       <c r="E17" t="n">
-        <v>1222.078677503568</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="F17" t="n">
-        <v>805.184239033546</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="G17" t="n">
-        <v>392.5212162653519</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H17" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I17" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7759762473729</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K17" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L17" t="n">
         <v>1251.67373183635</v>
@@ -5530,7 +5530,7 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O17" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P17" t="n">
         <v>3440.065528972629</v>
@@ -5539,28 +5539,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R17" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S17" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T17" t="n">
-        <v>3294.76219545487</v>
+        <v>3301.363772201453</v>
       </c>
       <c r="U17" t="n">
-        <v>3039.049444508973</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="V17" t="n">
-        <v>2696.942635212491</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.943600180779</v>
+        <v>2674.651986223843</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.943600180779</v>
+        <v>2285.1993811569</v>
       </c>
       <c r="Y17" t="n">
-        <v>2325.943600180779</v>
+        <v>2093.287287442688</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C18" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D18" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E18" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F18" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G18" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H18" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I18" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J18" t="n">
-        <v>1532.05946470852</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K18" t="n">
-        <v>1532.05946470852</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L18" t="n">
-        <v>2072.525841241656</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M18" t="n">
-        <v>2766.697446225849</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N18" t="n">
-        <v>2954.32262450955</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O18" t="n">
-        <v>2954.32262450955</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P18" t="n">
-        <v>3409.985905227944</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q18" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R18" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S18" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T18" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U18" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V18" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W18" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X18" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y18" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2886.968713728227</v>
+        <v>272.9693927159619</v>
       </c>
       <c r="C19" t="n">
-        <v>2886.968713728227</v>
+        <v>272.9693927159619</v>
       </c>
       <c r="D19" t="n">
-        <v>2886.968713728227</v>
+        <v>272.9693927159619</v>
       </c>
       <c r="E19" t="n">
-        <v>2731.40990158743</v>
+        <v>272.9693927159619</v>
       </c>
       <c r="F19" t="n">
-        <v>2574.083966800403</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="G19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J19" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K19" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L19" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M19" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N19" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O19" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P19" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q19" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R19" t="n">
-        <v>3563.98087969281</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S19" t="n">
-        <v>3563.98087969281</v>
+        <v>978.3652409720469</v>
       </c>
       <c r="T19" t="n">
-        <v>3563.98087969281</v>
+        <v>743.6039760978192</v>
       </c>
       <c r="U19" t="n">
-        <v>3563.98087969281</v>
+        <v>458.1774114072632</v>
       </c>
       <c r="V19" t="n">
-        <v>3298.001534513634</v>
+        <v>458.1774114072632</v>
       </c>
       <c r="W19" t="n">
-        <v>3014.671132444812</v>
+        <v>458.1774114072632</v>
       </c>
       <c r="X19" t="n">
-        <v>3014.671132444812</v>
+        <v>458.1774114072632</v>
       </c>
       <c r="Y19" t="n">
-        <v>2886.968713728227</v>
+        <v>458.1774114072632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1139.50554032304</v>
+        <v>2403.278832667425</v>
       </c>
       <c r="C20" t="n">
-        <v>746.3300388259704</v>
+        <v>2010.103331170356</v>
       </c>
       <c r="D20" t="n">
-        <v>511.5923865674342</v>
+        <v>1624.662202387024</v>
       </c>
       <c r="E20" t="n">
-        <v>511.5923865674342</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F20" t="n">
-        <v>511.5923865674342</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G20" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H20" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I20" t="n">
         <v>73.55605379431174</v>
@@ -5761,43 +5761,43 @@
         <v>1251.67373183635</v>
       </c>
       <c r="M20" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N20" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O20" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P20" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q20" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R20" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S20" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T20" t="n">
-        <v>3294.76219545487</v>
+        <v>3456.489667361</v>
       </c>
       <c r="U20" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V20" t="n">
-        <v>2696.942635212491</v>
+        <v>3174.772613410535</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.943600180779</v>
+        <v>2803.773578378822</v>
       </c>
       <c r="X20" t="n">
-        <v>1936.490995113836</v>
+        <v>2803.773578378822</v>
       </c>
       <c r="Y20" t="n">
-        <v>1540.000286034437</v>
+        <v>2803.773578378822</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C21" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D21" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E21" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F21" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G21" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H21" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I21" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J21" t="n">
-        <v>1532.05946470852</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K21" t="n">
-        <v>1894.115508059955</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L21" t="n">
-        <v>2434.58188459309</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M21" t="n">
-        <v>2434.58188459309</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N21" t="n">
-        <v>3158.517220400242</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O21" t="n">
-        <v>3409.985905227944</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P21" t="n">
-        <v>3409.985905227944</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q21" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R21" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S21" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T21" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U21" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V21" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W21" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X21" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y21" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.391965429747</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="C22" t="n">
-        <v>3009.555854384404</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="D22" t="n">
-        <v>2853.922741286919</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="E22" t="n">
-        <v>2853.922741286919</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="F22" t="n">
-        <v>2853.922741286919</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G22" t="n">
-        <v>2853.922741286919</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H22" t="n">
-        <v>2700.437202257928</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I22" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J22" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K22" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L22" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M22" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N22" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O22" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P22" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S22" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T22" t="n">
-        <v>3677.802689715586</v>
+        <v>969.6605409142317</v>
       </c>
       <c r="U22" t="n">
-        <v>3677.802689715586</v>
+        <v>684.2339762236757</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.802689715586</v>
+        <v>684.2339762236757</v>
       </c>
       <c r="W22" t="n">
-        <v>3394.472287646764</v>
+        <v>684.2339762236757</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.391965429747</v>
+        <v>450.1536540066587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.391965429747</v>
+        <v>227.0415928233021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1702.925371974108</v>
+        <v>1716.511478704244</v>
       </c>
       <c r="C23" t="n">
-        <v>1309.749870477039</v>
+        <v>1716.511478704244</v>
       </c>
       <c r="D23" t="n">
-        <v>1309.749870477039</v>
+        <v>1331.070349920912</v>
       </c>
       <c r="E23" t="n">
-        <v>1309.749870477039</v>
+        <v>928.4868250374565</v>
       </c>
       <c r="F23" t="n">
-        <v>924.2554093356284</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="G23" t="n">
         <v>511.5923865674342</v>
@@ -6001,40 +6001,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N23" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O23" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P23" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q23" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R23" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S23" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T23" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U23" t="n">
-        <v>3260.36246686356</v>
+        <v>3616.055382890177</v>
       </c>
       <c r="V23" t="n">
-        <v>3260.36246686356</v>
+        <v>3273.948573593696</v>
       </c>
       <c r="W23" t="n">
-        <v>2889.363431831848</v>
+        <v>2902.949538561983</v>
       </c>
       <c r="X23" t="n">
-        <v>2499.910826764904</v>
+        <v>2513.49693349504</v>
       </c>
       <c r="Y23" t="n">
-        <v>2103.420117685505</v>
+        <v>2117.006224415641</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C24" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D24" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E24" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F24" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G24" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H24" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I24" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J24" t="n">
-        <v>1532.05946470852</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K24" t="n">
-        <v>1894.115508059955</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L24" t="n">
-        <v>1894.115508059955</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M24" t="n">
-        <v>1894.115508059955</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N24" t="n">
-        <v>2618.050843867106</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O24" t="n">
-        <v>3196.921799441971</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P24" t="n">
-        <v>3409.985905227944</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q24" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R24" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S24" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T24" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U24" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V24" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W24" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X24" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y24" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2899.922197831898</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="C25" t="n">
-        <v>2729.717079897888</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="D25" t="n">
-        <v>2574.083966800402</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="E25" t="n">
-        <v>2574.083966800402</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="F25" t="n">
-        <v>2574.083966800402</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G25" t="n">
-        <v>2574.083966800402</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H25" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I25" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J25" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K25" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L25" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M25" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N25" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O25" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P25" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q25" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R25" t="n">
-        <v>3563.98087969281</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S25" t="n">
-        <v>3365.071343955361</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T25" t="n">
-        <v>3365.071343955361</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U25" t="n">
-        <v>3365.071343955361</v>
+        <v>929.6603358004427</v>
       </c>
       <c r="V25" t="n">
-        <v>3365.071343955361</v>
+        <v>929.6603358004427</v>
       </c>
       <c r="W25" t="n">
-        <v>3081.740941886539</v>
+        <v>646.3299337316203</v>
       </c>
       <c r="X25" t="n">
-        <v>2899.922197831898</v>
+        <v>412.2496115146034</v>
       </c>
       <c r="Y25" t="n">
-        <v>2899.922197831898</v>
+        <v>412.2496115146034</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1481.612349619521</v>
+        <v>2032.792426592594</v>
       </c>
       <c r="C26" t="n">
-        <v>1088.436848122452</v>
+        <v>1639.616925095525</v>
       </c>
       <c r="D26" t="n">
-        <v>702.9957193391197</v>
+        <v>1254.175796312192</v>
       </c>
       <c r="E26" t="n">
-        <v>300.4121944556642</v>
+        <v>1254.175796312192</v>
       </c>
       <c r="F26" t="n">
-        <v>300.4121944556642</v>
+        <v>837.2813578421702</v>
       </c>
       <c r="G26" t="n">
-        <v>300.4121944556642</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H26" t="n">
         <v>192.6272240963941</v>
       </c>
       <c r="I26" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J26" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473729</v>
       </c>
       <c r="K26" t="n">
-        <v>681.0612104920356</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L26" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M26" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N26" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O26" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P26" t="n">
-        <v>3440.065528972629</v>
+        <v>3440.06552897263</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R26" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S26" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T26" t="n">
-        <v>3294.76219545487</v>
+        <v>3456.489667361</v>
       </c>
       <c r="U26" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415103</v>
       </c>
       <c r="V26" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415103</v>
       </c>
       <c r="W26" t="n">
-        <v>2668.05040947726</v>
+        <v>2829.77788138339</v>
       </c>
       <c r="X26" t="n">
-        <v>2278.597804410317</v>
+        <v>2829.77788138339</v>
       </c>
       <c r="Y26" t="n">
-        <v>1882.107095330918</v>
+        <v>2433.287172303991</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>113.7374409695304</v>
       </c>
       <c r="I27" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J27" t="n">
         <v>211.4299322985498</v>
       </c>
       <c r="K27" t="n">
-        <v>573.4859756499842</v>
+        <v>573.4859756499843</v>
       </c>
       <c r="L27" t="n">
-        <v>1113.952352183119</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.123957167313</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N27" t="n">
-        <v>2089.356372817973</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O27" t="n">
-        <v>2089.356372817973</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P27" t="n">
         <v>2089.356372817973</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="D28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="E28" t="n">
-        <v>3025.793028040554</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="F28" t="n">
-        <v>2868.467093253526</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="G28" t="n">
-        <v>2700.437202257928</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H28" t="n">
-        <v>2700.437202257928</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I28" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J28" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="K28" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L28" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M28" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N28" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O28" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P28" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q28" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R28" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S28" t="n">
-        <v>3677.802689715586</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T28" t="n">
-        <v>3575.102775288552</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="U28" t="n">
-        <v>3575.102775288552</v>
+        <v>692.9386762814911</v>
       </c>
       <c r="V28" t="n">
-        <v>3309.123430109376</v>
+        <v>638.7985034614571</v>
       </c>
       <c r="W28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="X28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="Y28" t="n">
-        <v>3025.793028040554</v>
+        <v>355.4681013926348</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2336.238734698301</v>
+        <v>2203.384840498467</v>
       </c>
       <c r="C29" t="n">
-        <v>1943.063233201232</v>
+        <v>1810.209339001398</v>
       </c>
       <c r="D29" t="n">
-        <v>1557.6221044179</v>
+        <v>1424.768210218066</v>
       </c>
       <c r="E29" t="n">
-        <v>1155.038579534444</v>
+        <v>1022.18468533461</v>
       </c>
       <c r="F29" t="n">
-        <v>738.1441410644219</v>
+        <v>605.2902468645882</v>
       </c>
       <c r="G29" t="n">
-        <v>325.4811182962277</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="H29" t="n">
         <v>192.6272240963941</v>
@@ -6463,10 +6463,10 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J29" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K29" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L29" t="n">
         <v>1251.67373183635</v>
@@ -6475,7 +6475,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N29" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O29" t="n">
         <v>3021.445901261525</v>
@@ -6484,31 +6484,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S29" t="n">
-        <v>3522.67679455604</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T29" t="n">
-        <v>3522.67679455604</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="U29" t="n">
-        <v>3522.67679455604</v>
+        <v>3422.08993876969</v>
       </c>
       <c r="V29" t="n">
-        <v>3522.67679455604</v>
+        <v>3422.08993876969</v>
       </c>
       <c r="W29" t="n">
-        <v>3522.67679455604</v>
+        <v>3389.822900356206</v>
       </c>
       <c r="X29" t="n">
-        <v>3133.224189489097</v>
+        <v>3000.370295289263</v>
       </c>
       <c r="Y29" t="n">
-        <v>2736.733480409698</v>
+        <v>2603.879586209864</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>573.4859756499842</v>
       </c>
       <c r="L30" t="n">
-        <v>786.550081435956</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M30" t="n">
-        <v>786.550081435956</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N30" t="n">
-        <v>1510.485417243108</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O30" t="n">
-        <v>2089.356372817973</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P30" t="n">
         <v>2089.356372817973</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3040.731085126262</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C31" t="n">
-        <v>2870.525967192251</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D31" t="n">
-        <v>2870.525967192251</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J31" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K31" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L31" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M31" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N31" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O31" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P31" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q31" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R31" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S31" t="n">
-        <v>3478.893153978137</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T31" t="n">
-        <v>3244.13188910391</v>
+        <v>1142.372687949883</v>
       </c>
       <c r="U31" t="n">
-        <v>3244.13188910391</v>
+        <v>856.9461232593268</v>
       </c>
       <c r="V31" t="n">
-        <v>3244.13188910391</v>
+        <v>590.966778080151</v>
       </c>
       <c r="W31" t="n">
-        <v>3244.13188910391</v>
+        <v>307.6363760113287</v>
       </c>
       <c r="X31" t="n">
-        <v>3244.13188910391</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="Y31" t="n">
-        <v>3225.939103817563</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.32534930272</v>
+        <v>1597.440308402162</v>
       </c>
       <c r="C32" t="n">
-        <v>1341.149847805651</v>
+        <v>1597.440308402162</v>
       </c>
       <c r="D32" t="n">
-        <v>1341.149847805651</v>
+        <v>1211.99917961883</v>
       </c>
       <c r="E32" t="n">
-        <v>1341.149847805651</v>
+        <v>809.4156547353741</v>
       </c>
       <c r="F32" t="n">
-        <v>924.2554093356284</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="G32" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H32" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I32" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J32" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K32" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L32" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M32" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N32" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O32" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P32" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T32" t="n">
-        <v>3294.76219545487</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="U32" t="n">
-        <v>3039.049444508973</v>
+        <v>3100.493503508696</v>
       </c>
       <c r="V32" t="n">
-        <v>2696.942635212491</v>
+        <v>2758.386694212214</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.943600180779</v>
+        <v>2387.387659180502</v>
       </c>
       <c r="X32" t="n">
-        <v>2325.943600180779</v>
+        <v>1997.935054113559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2134.820095014117</v>
+        <v>1997.935054113559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C33" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D33" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E33" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F33" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G33" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H33" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I33" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J33" t="n">
-        <v>1394.185586204282</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K33" t="n">
-        <v>1756.241629555717</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L33" t="n">
-        <v>2260.151019525356</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M33" t="n">
-        <v>2954.32262450955</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N33" t="n">
-        <v>2954.32262450955</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O33" t="n">
-        <v>2954.32262450955</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P33" t="n">
-        <v>3409.985905227944</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q33" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R33" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S33" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T33" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U33" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V33" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W33" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X33" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y33" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3042.601826825713</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C34" t="n">
-        <v>3042.601826825713</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D34" t="n">
-        <v>2886.968713728227</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E34" t="n">
-        <v>2731.409901587429</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K34" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L34" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M34" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N34" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O34" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P34" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q34" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R34" t="n">
-        <v>3563.98087969281</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S34" t="n">
-        <v>3563.98087969281</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T34" t="n">
-        <v>3563.98087969281</v>
+        <v>1142.372687949883</v>
       </c>
       <c r="U34" t="n">
-        <v>3563.98087969281</v>
+        <v>856.9461232593268</v>
       </c>
       <c r="V34" t="n">
-        <v>3450.921906700371</v>
+        <v>590.966778080151</v>
       </c>
       <c r="W34" t="n">
-        <v>3450.921906700371</v>
+        <v>307.6363760113287</v>
       </c>
       <c r="X34" t="n">
-        <v>3450.921906700371</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="Y34" t="n">
-        <v>3227.809845517014</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1517.106152101335</v>
+        <v>1535.559722136567</v>
       </c>
       <c r="C35" t="n">
-        <v>1123.930650604266</v>
+        <v>1535.559722136567</v>
       </c>
       <c r="D35" t="n">
-        <v>928.4868250374565</v>
+        <v>1150.118593353234</v>
       </c>
       <c r="E35" t="n">
-        <v>928.4868250374565</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="F35" t="n">
-        <v>511.5923865674342</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G35" t="n">
         <v>511.5923865674342</v>
@@ -6949,40 +6949,40 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N35" t="n">
-        <v>2498.882522004026</v>
+        <v>2498.882522004027</v>
       </c>
       <c r="O35" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P35" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q35" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R35" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S35" t="n">
-        <v>3522.67679455604</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T35" t="n">
-        <v>3301.363772201453</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="U35" t="n">
         <v>3045.651021255556</v>
       </c>
       <c r="V35" t="n">
-        <v>2703.544211959074</v>
+        <v>2703.544211959075</v>
       </c>
       <c r="W35" t="n">
-        <v>2703.544211959074</v>
+        <v>2332.545176927362</v>
       </c>
       <c r="X35" t="n">
-        <v>2314.091606892131</v>
+        <v>2332.545176927362</v>
       </c>
       <c r="Y35" t="n">
-        <v>1917.600897812732</v>
+        <v>1936.054467847963</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2181.495988346058</v>
+        <v>860.8664559360877</v>
       </c>
       <c r="C36" t="n">
-        <v>2030.841757906151</v>
+        <v>710.2122254961799</v>
       </c>
       <c r="D36" t="n">
-        <v>1900.752790527631</v>
+        <v>580.1232581176603</v>
       </c>
       <c r="E36" t="n">
-        <v>1764.306299638519</v>
+        <v>443.676767228548</v>
       </c>
       <c r="F36" t="n">
-        <v>1639.87449352165</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G36" t="n">
-        <v>1520.082056183749</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H36" t="n">
-        <v>1434.366973379501</v>
+        <v>113.7374409695304</v>
       </c>
       <c r="I36" t="n">
-        <v>1394.185586204282</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J36" t="n">
-        <v>1394.185586204282</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K36" t="n">
-        <v>1394.185586204282</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L36" t="n">
-        <v>1680.824793349376</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M36" t="n">
-        <v>2374.99639833357</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N36" t="n">
-        <v>3098.931734140721</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O36" t="n">
-        <v>3677.802689715586</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P36" t="n">
-        <v>3677.802689715586</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q36" t="n">
-        <v>3677.802689715586</v>
+        <v>2357.173157305615</v>
       </c>
       <c r="R36" t="n">
-        <v>3670.486697645878</v>
+        <v>2349.857165235907</v>
       </c>
       <c r="S36" t="n">
-        <v>3540.522497737149</v>
+        <v>2219.892965327178</v>
       </c>
       <c r="T36" t="n">
-        <v>3364.616417350201</v>
+        <v>2043.986884940229</v>
       </c>
       <c r="U36" t="n">
-        <v>3154.570864857148</v>
+        <v>1833.941332447176</v>
       </c>
       <c r="V36" t="n">
-        <v>2932.030863228214</v>
+        <v>1611.401330818243</v>
       </c>
       <c r="W36" t="n">
-        <v>2701.913617361501</v>
+        <v>1381.28408495153</v>
       </c>
       <c r="X36" t="n">
-        <v>2512.606539711513</v>
+        <v>1191.977007301542</v>
       </c>
       <c r="Y36" t="n">
-        <v>2333.29232278702</v>
+        <v>1012.662790377049</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2744.247032691414</v>
+        <v>411.7910627239212</v>
       </c>
       <c r="C37" t="n">
-        <v>2744.247032691414</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.613919593929</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.613919593929</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.613919593929</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="G37" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H37" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I37" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J37" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K37" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L37" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M37" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N37" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O37" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P37" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q37" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R37" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S37" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T37" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U37" t="n">
-        <v>3527.637102156429</v>
+        <v>961.1008099719194</v>
       </c>
       <c r="V37" t="n">
-        <v>3261.657756977253</v>
+        <v>695.1214647927436</v>
       </c>
       <c r="W37" t="n">
-        <v>2978.327354908431</v>
+        <v>411.7910627239212</v>
       </c>
       <c r="X37" t="n">
-        <v>2744.247032691414</v>
+        <v>411.7910627239212</v>
       </c>
       <c r="Y37" t="n">
-        <v>2744.247032691414</v>
+        <v>411.7910627239212</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1139.50554032304</v>
+        <v>1701.727757940566</v>
       </c>
       <c r="C38" t="n">
-        <v>1139.50554032304</v>
+        <v>1308.552256443497</v>
       </c>
       <c r="D38" t="n">
-        <v>888.8026014459613</v>
+        <v>1308.552256443497</v>
       </c>
       <c r="E38" t="n">
-        <v>486.2190765625058</v>
+        <v>905.9687315600411</v>
       </c>
       <c r="F38" t="n">
-        <v>486.2190765625058</v>
+        <v>489.0742930900188</v>
       </c>
       <c r="G38" t="n">
-        <v>73.55605379431174</v>
+        <v>489.0742930900188</v>
       </c>
       <c r="H38" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I38" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J38" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473729</v>
       </c>
       <c r="K38" t="n">
-        <v>681.0612104920353</v>
+        <v>681.061210492036</v>
       </c>
       <c r="L38" t="n">
         <v>1251.67373183635</v>
@@ -7189,37 +7189,37 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O38" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P38" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q38" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R38" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S38" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="T38" t="n">
-        <v>3294.76219545487</v>
+        <v>3456.489667361</v>
       </c>
       <c r="U38" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V38" t="n">
-        <v>2696.942635212491</v>
+        <v>2858.670107118621</v>
       </c>
       <c r="W38" t="n">
-        <v>2325.943600180779</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="X38" t="n">
-        <v>1936.490995113836</v>
+        <v>2098.218467019965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1540.000286034437</v>
+        <v>1701.727757940566</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>1113.952352183119</v>
       </c>
       <c r="M39" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N39" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O39" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q39" t="n">
         <v>2357.173157305615</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>194.2942288498213</v>
+        <v>567.3498748647187</v>
       </c>
       <c r="C40" t="n">
-        <v>73.55605379431174</v>
+        <v>397.144756930708</v>
       </c>
       <c r="D40" t="n">
-        <v>73.55605379431174</v>
+        <v>397.144756930708</v>
       </c>
       <c r="E40" t="n">
-        <v>73.55605379431174</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="F40" t="n">
-        <v>73.55605379431174</v>
+        <v>241.5859447899105</v>
       </c>
       <c r="G40" t="n">
         <v>73.55605379431174</v>
@@ -7359,25 +7359,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S40" t="n">
-        <v>978.3652409720471</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T40" t="n">
-        <v>743.6039760978194</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U40" t="n">
-        <v>743.6039760978194</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="V40" t="n">
-        <v>477.6246309186437</v>
+        <v>801.4301970817356</v>
       </c>
       <c r="W40" t="n">
-        <v>194.2942288498213</v>
+        <v>801.4301970817356</v>
       </c>
       <c r="X40" t="n">
-        <v>194.2942288498213</v>
+        <v>567.3498748647187</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.2942288498213</v>
+        <v>567.3498748647187</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2491.364629857847</v>
+        <v>1734.32534930272</v>
       </c>
       <c r="C41" t="n">
-        <v>2098.189128360778</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="D41" t="n">
-        <v>1712.747999577446</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="E41" t="n">
-        <v>1310.16447469399</v>
+        <v>1341.149847805651</v>
       </c>
       <c r="F41" t="n">
-        <v>893.2700362239678</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G41" t="n">
         <v>511.5923865674342</v>
@@ -7408,7 +7408,7 @@
         <v>192.6272240963941</v>
       </c>
       <c r="I41" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J41" t="n">
         <v>259.7759762473726</v>
@@ -7432,31 +7432,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q41" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="R41" t="n">
-        <v>3677.802689715586</v>
+        <v>3677.802689715587</v>
       </c>
       <c r="S41" t="n">
-        <v>3677.802689715586</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T41" t="n">
-        <v>3677.802689715586</v>
+        <v>3493.091295355151</v>
       </c>
       <c r="U41" t="n">
-        <v>3677.802689715586</v>
+        <v>3237.378544409254</v>
       </c>
       <c r="V41" t="n">
-        <v>3677.802689715586</v>
+        <v>2895.271735112773</v>
       </c>
       <c r="W41" t="n">
-        <v>3677.802689715586</v>
+        <v>2524.27270008106</v>
       </c>
       <c r="X41" t="n">
-        <v>3288.350084648643</v>
+        <v>2134.820095014117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2891.859375569244</v>
+        <v>2134.820095014117</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>443.676767228548</v>
       </c>
       <c r="F42" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G42" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H42" t="n">
         <v>113.7374409695304</v>
       </c>
       <c r="I42" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J42" t="n">
-        <v>211.4299322985498</v>
+        <v>152.299716640143</v>
       </c>
       <c r="K42" t="n">
-        <v>211.4299322985498</v>
+        <v>514.3557599915774</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8963088316851</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.067913815879</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N42" t="n">
-        <v>1510.485417243108</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O42" t="n">
-        <v>2089.356372817973</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P42" t="n">
         <v>2089.356372817973</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.7771998967143</v>
+        <v>695.559452848612</v>
       </c>
       <c r="C43" t="n">
-        <v>107.7771998967143</v>
+        <v>695.559452848612</v>
       </c>
       <c r="D43" t="n">
-        <v>107.7771998967143</v>
+        <v>539.9263397511266</v>
       </c>
       <c r="E43" t="n">
-        <v>73.55605379431174</v>
+        <v>384.3675276103291</v>
       </c>
       <c r="F43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="G43" t="n">
-        <v>73.55605379431174</v>
+        <v>227.0415928233021</v>
       </c>
       <c r="H43" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="I43" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="J43" t="n">
-        <v>73.55605379431174</v>
+        <v>73.55605379431175</v>
       </c>
       <c r="K43" t="n">
-        <v>180.916480058984</v>
+        <v>180.9164800589841</v>
       </c>
       <c r="L43" t="n">
-        <v>377.7078248483129</v>
+        <v>377.707824848313</v>
       </c>
       <c r="M43" t="n">
-        <v>598.4387002306314</v>
+        <v>598.4387002306315</v>
       </c>
       <c r="N43" t="n">
         <v>815.2487417978014</v>
@@ -7599,22 +7599,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="T43" t="n">
-        <v>942.5135118352684</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="U43" t="n">
-        <v>657.0869471447124</v>
+        <v>891.8482120189401</v>
       </c>
       <c r="V43" t="n">
-        <v>391.1076019655367</v>
+        <v>695.559452848612</v>
       </c>
       <c r="W43" t="n">
-        <v>107.7771998967143</v>
+        <v>695.559452848612</v>
       </c>
       <c r="X43" t="n">
-        <v>107.7771998967143</v>
+        <v>695.559452848612</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.7771998967143</v>
+        <v>695.559452848612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1923.040780295153</v>
+        <v>1667.419231726363</v>
       </c>
       <c r="C44" t="n">
-        <v>1810.209339001398</v>
+        <v>1274.243730229294</v>
       </c>
       <c r="D44" t="n">
-        <v>1424.768210218066</v>
+        <v>888.8026014459613</v>
       </c>
       <c r="E44" t="n">
-        <v>1022.18468533461</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="F44" t="n">
-        <v>605.2902468645882</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G44" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H44" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I44" t="n">
         <v>73.55605379431174</v>
@@ -7675,25 +7675,25 @@
         <v>3677.802689715587</v>
       </c>
       <c r="S44" t="n">
-        <v>3677.802689715587</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="T44" t="n">
-        <v>3677.802689715587</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="U44" t="n">
-        <v>3422.08993876969</v>
+        <v>3522.676794556041</v>
       </c>
       <c r="V44" t="n">
-        <v>3079.983129473208</v>
+        <v>3224.856326615815</v>
       </c>
       <c r="W44" t="n">
-        <v>2708.984094441495</v>
+        <v>2853.857291584102</v>
       </c>
       <c r="X44" t="n">
-        <v>2319.531489374552</v>
+        <v>2464.404686517159</v>
       </c>
       <c r="Y44" t="n">
-        <v>1923.040780295153</v>
+        <v>2067.91397743776</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K45" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499843</v>
       </c>
       <c r="L45" t="n">
-        <v>435.6120971457461</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="M45" t="n">
-        <v>435.6120971457461</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.547432952898</v>
+        <v>1113.95235218312</v>
       </c>
       <c r="O45" t="n">
-        <v>1738.418388527763</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P45" t="n">
         <v>2089.356372817973</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="C46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J46" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L46" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483129</v>
       </c>
       <c r="M46" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N46" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978014</v>
       </c>
       <c r="O46" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P46" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q46" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R46" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S46" t="n">
-        <v>3677.802689715587</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T46" t="n">
-        <v>3443.041424841359</v>
+        <v>966.9329003078718</v>
       </c>
       <c r="U46" t="n">
-        <v>3157.614860150803</v>
+        <v>966.9329003078718</v>
       </c>
       <c r="V46" t="n">
-        <v>2891.635514971627</v>
+        <v>700.9535551286961</v>
       </c>
       <c r="W46" t="n">
-        <v>2608.305112902805</v>
+        <v>700.9535551286961</v>
       </c>
       <c r="X46" t="n">
-        <v>2608.305112902805</v>
+        <v>466.8732329116792</v>
       </c>
       <c r="Y46" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>99.852421747409</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8303,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>616.3484143223238</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8470,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>454.191973973224</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,10 +8540,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238536</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8774,22 +8774,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>387.0681182259968</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>25.31646007202632</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932578</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>36.53597895871121</v>
+        <v>145.6795376129279</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>57.19856433495295</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>16.52629002932575</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O15" t="n">
-        <v>29.70708112738964</v>
+        <v>124.0362926626492</v>
       </c>
       <c r="P15" t="n">
-        <v>459.8756700242652</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>57.19856433495293</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K18" t="n">
-        <v>46.85259463716366</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N18" t="n">
-        <v>206.0466721340736</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O18" t="n">
-        <v>29.70708112738966</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9491,13 +9491,13 @@
         <v>25.31646007202635</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932578</v>
       </c>
       <c r="O21" t="n">
-        <v>283.7158536806249</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>36.53597895871123</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9722,19 +9722,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>32.58530581164345</v>
+        <v>518.783448109349</v>
       </c>
       <c r="M24" t="n">
-        <v>25.31646007202632</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>251.752247429391</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9959,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>518.7834481093489</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N27" t="n">
-        <v>300.5994371512043</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O27" t="n">
-        <v>29.70708112738964</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10196,19 +10196,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>247.8015742823221</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>25.31646007202632</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P30" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>541.5846896193597</v>
+        <v>518.783448109349</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N33" t="n">
-        <v>16.52629002932575</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O33" t="n">
-        <v>29.70708112738964</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>322.119858483455</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P36" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>696.3769141605418</v>
+        <v>25.3164600720263</v>
       </c>
       <c r="N39" t="n">
-        <v>16.52629002932575</v>
+        <v>16.52629002932574</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P39" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>136.9745245669905</v>
       </c>
       <c r="K42" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202629</v>
       </c>
       <c r="N42" t="n">
-        <v>81.59447530935468</v>
+        <v>16.52629002932572</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11375,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>32.58530581164342</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>25.31646007202629</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932572</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076506</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0187913730643</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.529896799182</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H11" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1556234364382</v>
+        <v>225.3040860216911</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>77.63810425547555</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23427,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>73.62499062512759</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T13" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5722990436504</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>340.7008335493572</v>
       </c>
       <c r="X14" t="n">
-        <v>8.720817579840343</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.3495920856427</v>
@@ -23673,7 +23673,7 @@
         <v>151.9506836387004</v>
       </c>
       <c r="I16" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>14.38465326559117</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>112.6835919225485</v>
+        <v>48.78758470415752</v>
       </c>
       <c r="S16" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>214.1856063450404</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>91.4649609205639</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>202.5328292115355</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23898,13 +23898,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>124.6830619923658</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.9506836387004</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.4555460421041</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>149.1964417595481</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.535560979117129</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>312.9414812289948</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>19.17531681978119</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J22" t="n">
         <v>14.38465326559117</v>
@@ -24180,22 +24180,22 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T22" t="n">
-        <v>232.4136522254854</v>
+        <v>26.87555878817381</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31.0859775553256</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T23" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>192.0257896792829</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24381,13 +24381,13 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H25" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>125.0897031029503</v>
       </c>
       <c r="J25" t="n">
-        <v>14.38465326559117</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T25" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5722990436504</v>
+        <v>269.8476547691729</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>51.73896238075281</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.5363925405122</v>
+        <v>86.10431097852359</v>
       </c>
       <c r="H26" t="n">
-        <v>209.0683901906523</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H28" t="n">
         <v>151.9506836387004</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.38465326559117</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S28" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>130.7407369427209</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>209.7207806355504</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2501555884944</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T29" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>335.3446766520472</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24858,10 +24858,10 @@
         <v>151.9506836387004</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>197.8605843534681</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.8700831380397</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>54.29405743060809</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>203.3135318736093</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.3495920856427</v>
@@ -25098,7 +25098,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J34" t="n">
-        <v>14.38465326559117</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S34" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T34" t="n">
-        <v>232.4136522254854</v>
+        <v>197.8605843534681</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>151.3911684648689</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>188.0973301843577</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>174.9531374571911</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.535560979117118</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,7 +25326,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.9506836387004</v>
@@ -25335,7 +25335,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U37" t="n">
-        <v>133.9083673600847</v>
+        <v>68.56007197344948</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>133.3908080071911</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H38" t="n">
-        <v>315.7755108463297</v>
+        <v>22.2929125426412</v>
       </c>
       <c r="I38" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.535560979117111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>48.9722734497162</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.9506836387004</v>
@@ -25572,7 +25572,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J40" t="n">
-        <v>14.38465326559117</v>
+        <v>14.38465326559116</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>123.6470701213865</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>30.6755193805439</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>6.535560979117101</v>
       </c>
       <c r="S41" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.0998921310412</v>
+        <v>189.8102479221602</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.124289378011</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3495920856427</v>
       </c>
       <c r="H43" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>125.0897031029503</v>
@@ -25839,16 +25839,16 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>68.99368014875915</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>277.540619601281</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>6.535560979117101</v>
       </c>
       <c r="S44" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>43.84347794269297</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>134.6241321132925</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26073,25 +26073,25 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S46" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0956349679518</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610700.8727711586</v>
+        <v>610700.8727711583</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610700.8727711583</v>
+        <v>610700.8727711586</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610700.8727711583</v>
+        <v>610700.8727711586</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610700.8727711583</v>
+        <v>610700.8727711586</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610700.8727711583</v>
+        <v>610700.8727711586</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="C2" t="n">
-        <v>577062.9698987416</v>
+        <v>577062.9698987419</v>
       </c>
       <c r="D2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.969898742</v>
       </c>
       <c r="E2" t="n">
-        <v>451449.2418519394</v>
+        <v>451449.2418519389</v>
       </c>
       <c r="F2" t="n">
-        <v>451449.2418519392</v>
+        <v>451449.2418519389</v>
       </c>
       <c r="G2" t="n">
         <v>451449.241851939</v>
       </c>
       <c r="H2" t="n">
+        <v>451449.2418519391</v>
+      </c>
+      <c r="I2" t="n">
         <v>451449.2418519389</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>451449.241851939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>451449.2418519391</v>
+      </c>
+      <c r="L2" t="n">
+        <v>451449.2418519394</v>
+      </c>
+      <c r="M2" t="n">
+        <v>451449.2418519394</v>
+      </c>
+      <c r="N2" t="n">
         <v>451449.2418519392</v>
-      </c>
-      <c r="J2" t="n">
-        <v>451449.2418519391</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451449.2418519392</v>
-      </c>
-      <c r="L2" t="n">
-        <v>451449.2418519392</v>
-      </c>
-      <c r="M2" t="n">
-        <v>451449.2418519392</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451449.2418519393</v>
       </c>
       <c r="O2" t="n">
         <v>451449.2418519394</v>
       </c>
       <c r="P2" t="n">
-        <v>451449.2418519394</v>
+        <v>451449.2418519395</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>154739.4343656035</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
+        <v>75226.43238525096</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75226.43238525093</v>
+      </c>
+      <c r="G4" t="n">
         <v>75226.43238525094</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>75226.43238525094</v>
       </c>
-      <c r="G4" t="n">
-        <v>75226.43238525096</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75226.43238525096</v>
-      </c>
       <c r="I4" t="n">
-        <v>75226.43238525096</v>
+        <v>75226.43238525094</v>
       </c>
       <c r="J4" t="n">
-        <v>75226.43238525096</v>
+        <v>75226.43238525093</v>
       </c>
       <c r="K4" t="n">
         <v>75226.43238525094</v>
       </c>
       <c r="L4" t="n">
+        <v>75226.43238525093</v>
+      </c>
+      <c r="M4" t="n">
         <v>75226.43238525094</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>75226.43238525094</v>
+      </c>
+      <c r="O4" t="n">
         <v>75226.43238525096</v>
-      </c>
-      <c r="N4" t="n">
-        <v>75226.43238525096</v>
-      </c>
-      <c r="O4" t="n">
-        <v>75226.43238525094</v>
       </c>
       <c r="P4" t="n">
         <v>75226.43238525094</v>
@@ -26493,7 +26493,7 @@
         <v>58585.42736276834</v>
       </c>
       <c r="J5" t="n">
-        <v>58585.42736276834</v>
+        <v>58585.42736276835</v>
       </c>
       <c r="K5" t="n">
         <v>58585.42736276834</v>
@@ -26508,7 +26508,7 @@
         <v>58585.42736276834</v>
       </c>
       <c r="O5" t="n">
-        <v>58585.42736276834</v>
+        <v>58585.42736276835</v>
       </c>
       <c r="P5" t="n">
         <v>58585.42736276834</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86259.85007815622</v>
+        <v>86259.85007815596</v>
       </c>
       <c r="C6" t="n">
-        <v>284455.656069901</v>
+        <v>284455.6560699013</v>
       </c>
       <c r="D6" t="n">
-        <v>284455.6560699011</v>
+        <v>284455.6560699014</v>
       </c>
       <c r="E6" t="n">
-        <v>120821.1495374177</v>
+        <v>120428.606637271</v>
       </c>
       <c r="F6" t="n">
-        <v>317637.38210392</v>
+        <v>317244.8392037734</v>
       </c>
       <c r="G6" t="n">
-        <v>317637.3821039198</v>
+        <v>317244.8392037735</v>
       </c>
       <c r="H6" t="n">
-        <v>317637.3821039196</v>
+        <v>317244.8392037735</v>
       </c>
       <c r="I6" t="n">
-        <v>317637.38210392</v>
+        <v>317244.8392037734</v>
       </c>
       <c r="J6" t="n">
-        <v>162897.9477383164</v>
+        <v>162505.40483817</v>
       </c>
       <c r="K6" t="n">
-        <v>317637.38210392</v>
+        <v>317244.8392037736</v>
       </c>
       <c r="L6" t="n">
-        <v>317637.38210392</v>
+        <v>317244.8392037738</v>
       </c>
       <c r="M6" t="n">
-        <v>235888.8642467626</v>
+        <v>235496.3213466166</v>
       </c>
       <c r="N6" t="n">
-        <v>317637.38210392</v>
+        <v>317244.8392037737</v>
       </c>
       <c r="O6" t="n">
-        <v>317637.3821039202</v>
+        <v>317244.8392037738</v>
       </c>
       <c r="P6" t="n">
-        <v>317637.3821039201</v>
+        <v>317244.839203774</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>123.0654348207075</v>
       </c>
       <c r="I3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="J3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="K3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="L3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="M3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="N3" t="n">
-        <v>123.0654348207075</v>
+        <v>123.0654348207076</v>
       </c>
       <c r="O3" t="n">
         <v>123.0654348207076</v>
@@ -26807,28 +26807,28 @@
         <v>919.4506724288966</v>
       </c>
       <c r="H4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="I4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="J4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288968</v>
       </c>
       <c r="K4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="L4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="M4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="N4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288967</v>
       </c>
       <c r="O4" t="n">
-        <v>919.4506724288966</v>
+        <v>919.4506724288968</v>
       </c>
       <c r="P4" t="n">
         <v>919.4506724288967</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.9301836602859</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>223.7784875802372</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>89.67763129113817</v>
       </c>
       <c r="C4" t="n">
-        <v>70.89153532203261</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27593,16 +27593,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>292.5770593465398</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>178.6376828734439</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>128.5320589983787</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27830,19 +27830,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>194.8448867520854</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>259.5749265872181</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>206.451556303383</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.7343562880042</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28025,10 +28025,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>66.67097120124804</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646528</v>
       </c>
       <c r="H11" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844502</v>
       </c>
       <c r="I11" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J11" t="n">
-        <v>41.99005004467951</v>
+        <v>41.99005004467949</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939526</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796502</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87121017873994</v>
+        <v>86.8712101787399</v>
       </c>
       <c r="N11" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048598</v>
       </c>
       <c r="O11" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188400996</v>
       </c>
       <c r="P11" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250759</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394844</v>
       </c>
       <c r="R11" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821615</v>
       </c>
       <c r="S11" t="n">
         <v>11.27378330040954</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2647067843313332</v>
+        <v>0.2647067843313331</v>
       </c>
       <c r="H12" t="n">
-        <v>2.556510259199981</v>
+        <v>2.55651025919998</v>
       </c>
       <c r="I12" t="n">
-        <v>9.113808144741077</v>
+        <v>9.113808144741075</v>
       </c>
       <c r="J12" t="n">
-        <v>25.00898614597039</v>
+        <v>25.00898614597038</v>
       </c>
       <c r="K12" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616969</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527476</v>
       </c>
       <c r="M12" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728557</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484088</v>
       </c>
       <c r="O12" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149923</v>
       </c>
       <c r="P12" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060342</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.78958882096106</v>
+        <v>33.78958882096104</v>
       </c>
       <c r="R12" t="n">
         <v>16.43504052190506</v>
       </c>
       <c r="S12" t="n">
-        <v>4.916812419487698</v>
+        <v>4.916812419487696</v>
       </c>
       <c r="T12" t="n">
         <v>1.066954100002171</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H13" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420524</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673778006342633</v>
+        <v>6.67377800634263</v>
       </c>
       <c r="J13" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K13" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801051</v>
       </c>
       <c r="L13" t="n">
-        <v>32.99364132881723</v>
+        <v>32.99364132881722</v>
       </c>
       <c r="M13" t="n">
         <v>34.78716873136818</v>
       </c>
       <c r="N13" t="n">
-        <v>33.96000761208149</v>
+        <v>33.96000761208148</v>
       </c>
       <c r="O13" t="n">
-        <v>31.36756361626821</v>
+        <v>31.3675636162682</v>
       </c>
       <c r="P13" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200312</v>
       </c>
       <c r="S13" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201576</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628278</v>
       </c>
       <c r="U13" t="n">
         <v>0.01210479686761059</v>
@@ -31989,25 +31989,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H14" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I14" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J14" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N14" t="n">
         <v>88.27687718048601</v>
@@ -32016,7 +32016,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P14" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q14" t="n">
         <v>53.42585919394845</v>
@@ -32028,10 +32028,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T14" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32083,19 +32083,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M15" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O15" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P15" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q15" t="n">
         <v>33.78958882096106</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H16" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J16" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K16" t="n">
         <v>25.78321732801052</v>
@@ -32174,19 +32174,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P16" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S16" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U16" t="n">
         <v>0.01210479686761059</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4947354163646527</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H17" t="n">
-        <v>5.066709082844501</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I17" t="n">
-        <v>19.07328713939829</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J17" t="n">
-        <v>41.99005004467949</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K17" t="n">
-        <v>62.93220021939525</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L17" t="n">
-        <v>78.07295921796501</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M17" t="n">
-        <v>86.8712101787399</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N17" t="n">
-        <v>88.27687718048597</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O17" t="n">
-        <v>83.35735188400996</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P17" t="n">
-        <v>71.14357129250757</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.42585919394843</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R17" t="n">
-        <v>31.07742359821615</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S17" t="n">
         <v>11.27378330040954</v>
@@ -32268,7 +32268,7 @@
         <v>2.165704285136269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03957883330917221</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.264706784331333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H18" t="n">
-        <v>2.55651025919998</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I18" t="n">
-        <v>9.113808144741073</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J18" t="n">
-        <v>25.00898614597038</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K18" t="n">
-        <v>42.74434069616969</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L18" t="n">
-        <v>57.47504104527475</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M18" t="n">
-        <v>67.07066197728555</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N18" t="n">
-        <v>68.84582282484087</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O18" t="n">
-        <v>62.98047776149922</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P18" t="n">
-        <v>50.54738586060342</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.78958882096104</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R18" t="n">
-        <v>16.43504052190505</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S18" t="n">
-        <v>4.916812419487696</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T18" t="n">
         <v>1.066954100002171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01741492002179823</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,28 +32387,28 @@
         <v>0.2219212759061938</v>
       </c>
       <c r="H19" t="n">
-        <v>1.973081889420524</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I19" t="n">
-        <v>6.673778006342629</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J19" t="n">
         <v>15.6898342065679</v>
       </c>
       <c r="K19" t="n">
-        <v>25.78321732801051</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L19" t="n">
-        <v>32.99364132881721</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M19" t="n">
-        <v>34.78716873136817</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N19" t="n">
-        <v>33.96000761208148</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O19" t="n">
-        <v>31.3675636162682</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P19" t="n">
         <v>26.84036958778183</v>
@@ -32417,16 +32417,16 @@
         <v>18.58288065792683</v>
       </c>
       <c r="R19" t="n">
-        <v>9.97838755120031</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S19" t="n">
-        <v>3.867482599201575</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9482090879628277</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01210479686761058</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H23" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I23" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J23" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K23" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L23" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M23" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N23" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O23" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P23" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R23" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S23" t="n">
         <v>11.27378330040954</v>
@@ -32742,7 +32742,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,43 +32782,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H24" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I24" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J24" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K24" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L24" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M24" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N24" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O24" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P24" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q24" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R24" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S24" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T24" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U24" t="n">
         <v>0.01741492002179824</v>
@@ -32861,28 +32861,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H25" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I25" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J25" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K25" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L25" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M25" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N25" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O25" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P25" t="n">
         <v>26.84036958778184</v>
@@ -32891,13 +32891,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R25" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S25" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U25" t="n">
         <v>0.01210479686761059</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H26" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I26" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J26" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K26" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L26" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M26" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N26" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O26" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P26" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R26" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S26" t="n">
         <v>11.27378330040954</v>
@@ -32979,7 +32979,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H27" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I27" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J27" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K27" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L27" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M27" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N27" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O27" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P27" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q27" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R27" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S27" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T27" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U27" t="n">
         <v>0.01741492002179824</v>
@@ -33098,28 +33098,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H28" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I28" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J28" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K28" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L28" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M28" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N28" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O28" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P28" t="n">
         <v>26.84036958778184</v>
@@ -33128,13 +33128,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R28" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S28" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U28" t="n">
         <v>0.01210479686761059</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H29" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I29" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J29" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K29" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L29" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M29" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N29" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O29" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P29" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R29" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S29" t="n">
         <v>11.27378330040954</v>
@@ -33216,7 +33216,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H30" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I30" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J30" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K30" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L30" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M30" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N30" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O30" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P30" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q30" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R30" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S30" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T30" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U30" t="n">
         <v>0.01741492002179824</v>
@@ -33335,28 +33335,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H31" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I31" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J31" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K31" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L31" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M31" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N31" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O31" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P31" t="n">
         <v>26.84036958778184</v>
@@ -33365,13 +33365,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R31" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S31" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U31" t="n">
         <v>0.01210479686761059</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H32" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I32" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J32" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K32" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L32" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M32" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N32" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O32" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P32" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R32" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S32" t="n">
         <v>11.27378330040954</v>
@@ -33453,7 +33453,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H33" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I33" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J33" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K33" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L33" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M33" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N33" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O33" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P33" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q33" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R33" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S33" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T33" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U33" t="n">
         <v>0.01741492002179824</v>
@@ -33572,28 +33572,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H34" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I34" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J34" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K34" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L34" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M34" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N34" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O34" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P34" t="n">
         <v>26.84036958778184</v>
@@ -33602,13 +33602,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R34" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S34" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U34" t="n">
         <v>0.01210479686761059</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H35" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I35" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J35" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K35" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L35" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M35" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N35" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O35" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P35" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R35" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S35" t="n">
         <v>11.27378330040954</v>
@@ -33690,7 +33690,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H36" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I36" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J36" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K36" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L36" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M36" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N36" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O36" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P36" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q36" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R36" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S36" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T36" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U36" t="n">
         <v>0.01741492002179824</v>
@@ -33809,28 +33809,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H37" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I37" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J37" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K37" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L37" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M37" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N37" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O37" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P37" t="n">
         <v>26.84036958778184</v>
@@ -33839,13 +33839,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R37" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S37" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U37" t="n">
         <v>0.01210479686761059</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646531</v>
       </c>
       <c r="H38" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844505</v>
       </c>
       <c r="I38" t="n">
-        <v>19.0732871393983</v>
+        <v>19.07328713939831</v>
       </c>
       <c r="J38" t="n">
         <v>41.99005004467951</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939529</v>
       </c>
       <c r="L38" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796506</v>
       </c>
       <c r="M38" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873996</v>
       </c>
       <c r="N38" t="n">
-        <v>88.27687718048601</v>
+        <v>88.27687718048604</v>
       </c>
       <c r="O38" t="n">
-        <v>83.35735188400999</v>
+        <v>83.35735188401001</v>
       </c>
       <c r="P38" t="n">
-        <v>71.14357129250762</v>
+        <v>71.14357129250763</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.42585919394845</v>
+        <v>53.42585919394847</v>
       </c>
       <c r="R38" t="n">
-        <v>31.07742359821616</v>
+        <v>31.07742359821617</v>
       </c>
       <c r="S38" t="n">
         <v>11.27378330040954</v>
@@ -33927,7 +33927,7 @@
         <v>2.16570428513627</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917224</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>0.2647067843313332</v>
       </c>
       <c r="H39" t="n">
-        <v>2.556510259199981</v>
+        <v>2.556510259199982</v>
       </c>
       <c r="I39" t="n">
-        <v>9.113808144741077</v>
+        <v>9.11380814474108</v>
       </c>
       <c r="J39" t="n">
         <v>25.00898614597039</v>
       </c>
       <c r="K39" t="n">
-        <v>42.74434069616971</v>
+        <v>42.74434069616972</v>
       </c>
       <c r="L39" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527479</v>
       </c>
       <c r="M39" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728561</v>
       </c>
       <c r="N39" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484092</v>
       </c>
       <c r="O39" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149927</v>
       </c>
       <c r="P39" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060346</v>
       </c>
       <c r="Q39" t="n">
         <v>33.78958882096106</v>
       </c>
       <c r="R39" t="n">
-        <v>16.43504052190506</v>
+        <v>16.43504052190507</v>
       </c>
       <c r="S39" t="n">
-        <v>4.916812419487698</v>
+        <v>4.9168124194877</v>
       </c>
       <c r="T39" t="n">
-        <v>1.066954100002171</v>
+        <v>1.066954100002172</v>
       </c>
       <c r="U39" t="n">
         <v>0.01741492002179824</v>
@@ -34046,28 +34046,28 @@
         <v>0.2219212759061939</v>
       </c>
       <c r="H40" t="n">
-        <v>1.973081889420525</v>
+        <v>1.973081889420526</v>
       </c>
       <c r="I40" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342634</v>
       </c>
       <c r="J40" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K40" t="n">
-        <v>25.78321732801052</v>
+        <v>25.78321732801053</v>
       </c>
       <c r="L40" t="n">
         <v>32.99364132881723</v>
       </c>
       <c r="M40" t="n">
-        <v>34.78716873136818</v>
+        <v>34.78716873136819</v>
       </c>
       <c r="N40" t="n">
-        <v>33.96000761208149</v>
+        <v>33.9600076120815</v>
       </c>
       <c r="O40" t="n">
-        <v>31.36756361626821</v>
+        <v>31.36756361626822</v>
       </c>
       <c r="P40" t="n">
         <v>26.84036958778184</v>
@@ -34076,13 +34076,13 @@
         <v>18.58288065792684</v>
       </c>
       <c r="R40" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200317</v>
       </c>
       <c r="S40" t="n">
-        <v>3.867482599201577</v>
+        <v>3.867482599201578</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.9482090879628283</v>
       </c>
       <c r="U40" t="n">
         <v>0.01210479686761059</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>463.1002445918322</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35190,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>303.8905267322988</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696869</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>638.3872708298314</v>
       </c>
       <c r="N11" t="n">
-        <v>621.4195879253972</v>
+        <v>621.4195879253971</v>
       </c>
       <c r="O11" t="n">
         <v>527.8417972297963</v>
@@ -35494,22 +35494,22 @@
         <v>365.713175102459</v>
       </c>
       <c r="L12" t="n">
-        <v>354.4828124143534</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N12" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>584.7181369443084</v>
+        <v>584.7181369443083</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>109.1435586542167</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.5220045329717</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.03964466807932</v>
+        <v>22.03964466807931</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K15" t="n">
         <v>365.713175102459</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>94.32921153525953</v>
       </c>
       <c r="P15" t="n">
-        <v>423.339691065554</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.5220045329717</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>638.3872708298314</v>
       </c>
       <c r="N17" t="n">
-        <v>621.4195879253971</v>
+        <v>621.4195879253972</v>
       </c>
       <c r="O17" t="n">
         <v>527.8417972297963</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2665439436748</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L18" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M18" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5203821047478</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P18" t="n">
         <v>460.2659401195907</v>
@@ -36062,7 +36062,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.03964466807931</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.2665439436748</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K21" t="n">
         <v>365.713175102459</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>254.0087725532352</v>
+        <v>584.7181369443083</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q21" t="n">
         <v>270.5220045329717</v>
@@ -36375,7 +36375,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P23" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q23" t="n">
         <v>240.1385462050076</v>
@@ -36442,19 +36442,19 @@
         <v>365.713175102459</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P24" t="n">
-        <v>215.2162684706798</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q24" t="n">
         <v>270.5220045329717</v>
@@ -36612,7 +36612,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P26" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q26" t="n">
         <v>240.1385462050076</v>
@@ -36679,19 +36679,19 @@
         <v>365.713175102459</v>
       </c>
       <c r="L27" t="n">
-        <v>545.9256328617528</v>
+        <v>486.1981422977055</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>284.0731471218785</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q27" t="n">
         <v>270.5220045329717</v>
@@ -36846,10 +36846,10 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O29" t="n">
-        <v>527.8417972297965</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P29" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1385462050076</v>
@@ -36916,19 +36916,19 @@
         <v>365.713175102459</v>
       </c>
       <c r="L30" t="n">
-        <v>215.2162684706786</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q30" t="n">
         <v>270.5220045329717</v>
@@ -37086,7 +37086,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P32" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q32" t="n">
         <v>240.1385462050076</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K33" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9993838077162</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="M33" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P33" t="n">
-        <v>460.2659401195907</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q33" t="n">
         <v>270.5220045329717</v>
@@ -37323,7 +37323,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P35" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q35" t="n">
         <v>240.1385462050076</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L36" t="n">
-        <v>289.5345526718116</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M36" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P38" t="n">
-        <v>422.8481087990953</v>
+        <v>422.8481087990954</v>
       </c>
       <c r="Q38" t="n">
         <v>240.1385462050076</v>
@@ -37630,19 +37630,19 @@
         <v>545.9256328617528</v>
       </c>
       <c r="M39" t="n">
-        <v>671.0604540885155</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>422.8481087990954</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1385462050073</v>
+        <v>240.1385462050083</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2665439436748</v>
+        <v>79.53905337962753</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L42" t="n">
         <v>545.9256328617529</v>
       </c>
       <c r="M42" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.06818528002896</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q42" t="n">
         <v>270.5220045329717</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K45" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>545.9256328617529</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>584.7181369443084</v>
+        <v>524.990646380261</v>
       </c>
       <c r="P45" t="n">
-        <v>354.4828124143532</v>
+        <v>460.2659401195908</v>
       </c>
       <c r="Q45" t="n">
         <v>270.5220045329717</v>
